--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Branch</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>commite</t>
+  </si>
+  <si>
+    <t>init</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="C1:E18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,12 +419,20 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="3:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
